--- a/Template/TestScript/TS_Login.xlsx
+++ b/Template/TestScript/TS_Login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TS" sheetId="1" r:id="rId1"/>
@@ -16,11 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>BPC Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Yes</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +52,22 @@
   </si>
   <si>
     <t>test1</t>
+  </si>
+  <si>
+    <t>RecordId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"login success"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPC_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msgContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -77,7 +89,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -87,6 +99,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -132,11 +150,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -448,32 +466,32 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="36" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -510,33 +528,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" ht="28.5">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.5">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="B2" s="2">
         <v>123</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+      <c r="C2" s="2">
+        <v>123</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Template/TestScript/TS_Login.xlsx
+++ b/Template/TestScript/TS_Login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="TS" sheetId="1" r:id="rId1"/>
@@ -62,11 +62,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BPC_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>msgContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPCName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -469,7 +469,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -550,7 +550,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="28.5">

--- a/Template/TestScript/TS_Login.xlsx
+++ b/Template/TestScript/TS_Login.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
@@ -9,23 +9,18 @@
   <sheets>
     <sheet name="TS" sheetId="1" r:id="rId1"/>
     <sheet name="BPC_Login" sheetId="2" r:id="rId2"/>
-    <sheet name="BPC_aaaa" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Yes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NeedOrNot</t>
   </si>
   <si>
@@ -38,10 +33,6 @@
   </si>
   <si>
     <t>BPC_Login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPC_aaaa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -73,8 +64,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -147,26 +138,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -240,6 +239,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -274,6 +274,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -449,14 +450,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" style="3" customWidth="1"/>
     <col min="2" max="2" width="10" style="3" customWidth="1"/>
@@ -464,61 +463,57 @@
     <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="36" customHeight="1">
+    </row>
+    <row r="2" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -527,35 +522,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="6"/>
+    <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5">
+    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="28.5">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="B2" s="2">
         <v>123</v>
@@ -564,32 +557,11 @@
         <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Template/TestScript/TS_Login.xlsx
+++ b/Template/TestScript/TS_Login.xlsx
@@ -9,23 +9,18 @@
   <sheets>
     <sheet name="TS" sheetId="1" r:id="rId1"/>
     <sheet name="BPC_Login" sheetId="2" r:id="rId2"/>
-    <sheet name="BPC_aaaa" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Yes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NeedOrNot</t>
   </si>
   <si>
@@ -33,40 +28,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>BPC_Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>BPCName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>login components include ….steps</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BPC_Login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPC_aaaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>RecordId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"login success"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>msgContent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPCName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisplayedName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -145,9 +129,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -450,29 +431,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="18" style="3" customWidth="1"/>
     <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="36" customHeight="1">
@@ -480,45 +459,11 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -528,68 +473,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="16384" width="9" style="6"/>
+    <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5">
+    <row r="1" spans="1:3" ht="28.5">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.5">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
         <v>123</v>
       </c>
-      <c r="C2" s="2">
-        <v>123</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C2" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Template/TestScript/TS_Login.xlsx
+++ b/Template/TestScript/TS_Login.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TS" sheetId="1" r:id="rId1"/>
@@ -57,8 +57,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,15 +139,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -221,6 +226,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -255,6 +261,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -430,12 +437,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="3" customWidth="1"/>
@@ -443,7 +450,7 @@
     <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -454,7 +461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="36" customHeight="1">
+    <row r="2" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -472,19 +479,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.5">
+    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -495,7 +500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
